--- a/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/class-diagram.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/class-diagram.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\english-edition\nablarch-system-development-guide\サンプルプロジェクト\サンプルプロジェクト開発ガイド\設計工程\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5EBC6-11E5-43CC-BA26-AD92637F0339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3E373-4B18-4179-9C9D-7E465702465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25380" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2227,7 +2222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4" style="1"/>
   </cols>

--- a/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/class-diagram.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/class-diagram.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3E373-4B18-4179-9C9D-7E465702465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1EA88-F641-43EC-88B3-F6797A506A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25380" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2220,7 +2220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
